--- a/2019_Calendar template.xlsx
+++ b/2019_Calendar template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="25">
   <si>
     <t>Jan</t>
   </si>
@@ -120,7 +120,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,7 +135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,10 +190,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -466,15 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -557,37 +575,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -596,37 +614,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -635,37 +653,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -742,37 +760,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -781,37 +799,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -820,37 +838,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -859,37 +877,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -931,20 +949,20 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="3"/>
@@ -953,7 +971,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="3"/>
@@ -963,10 +981,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="3"/>
@@ -975,12 +993,12 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="3"/>
@@ -993,12 +1011,12 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="3"/>
@@ -1018,7 +1036,7 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="3"/>
@@ -1027,7 +1045,7 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="3"/>
@@ -1040,19 +1058,19 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="3"/>
@@ -1067,23 +1085,23 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1098,17 +1116,17 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1116,23 +1134,25 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="3"/>
@@ -1141,23 +1161,25 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="3"/>
@@ -1166,16 +1188,18 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="3"/>
@@ -1187,20 +1211,20 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="5">
-        <v>43399</v>
-      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
@@ -1208,22 +1232,22 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="5">
-        <v>43400</v>
-      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
@@ -1234,23 +1258,21 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="5">
-        <v>43462</v>
-      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1261,19 +1283,17 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="5">
-        <v>43463</v>
-      </c>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
